--- a/レビュー議事録（要求分析）.xlsx
+++ b/レビュー議事録（要求分析）.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF78841-BAAD-431E-A210-9952BCD83D15}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550F2F96-BADE-4156-9004-3EECF983D37E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1065" windowWidth="11370" windowHeight="10455" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="7" r:id="rId1"/>
@@ -573,19 +573,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>キャンセル等のシステムをユースケース図にのみ追加してほしい。</t>
-    <rPh sb="5" eb="6">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>事前条件のIDとパスワードはユーザが持つべきなのか？システムが持っているのか？</t>
     <rPh sb="0" eb="2">
       <t>ジゼン</t>
@@ -744,6 +731,22 @@
     </rPh>
     <rPh sb="4" eb="7">
       <t>ケイショウリャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャンセル等の要求をユースケース図にのみ追加してほしい。</t>
+    <rPh sb="5" eb="6">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1134,21 +1137,42 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1157,27 +1181,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1628,7 +1631,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
@@ -1641,10 +1644,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="7" t="s">
         <v>8</v>
       </c>
@@ -1653,10 +1656,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="8" t="s">
         <v>46</v>
       </c>
@@ -1665,66 +1668,66 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
+      <c r="A3" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
     </row>
     <row r="4" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="24" t="s">
+      <c r="A5" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="26"/>
+      <c r="D5" s="33"/>
     </row>
     <row r="6" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="22" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="23"/>
+      <c r="D6" s="31"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:4" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="32"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
@@ -1733,10 +1736,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="31"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="15" t="s">
         <v>47</v>
       </c>
@@ -1745,10 +1748,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="31"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="15" t="s">
         <v>48</v>
       </c>
@@ -1757,10 +1760,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="31"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="15" t="s">
         <v>49</v>
       </c>
@@ -1769,10 +1772,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="31"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="15" t="s">
         <v>50</v>
       </c>
@@ -1781,38 +1784,38 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="11"/>
       <c r="D19" s="12"/>
     </row>
@@ -1827,17 +1830,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:D3"/>
@@ -1848,6 +1840,17 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -1867,8 +1870,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1922,7 +1925,7 @@
         <v>60</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G2" s="19">
         <v>43985</v>
@@ -1939,13 +1942,13 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G3" s="19">
         <v>43985</v>
@@ -1962,7 +1965,7 @@
         <v>36</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>60</v>
@@ -1985,7 +1988,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>61</v>
@@ -2008,13 +2011,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G6" s="19">
         <v>43985</v>
@@ -2060,7 +2063,7 @@
         <v>61</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G8" s="19">
         <v>43985</v>
@@ -2077,13 +2080,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G9" s="19">
         <v>43985</v>
@@ -2100,13 +2103,13 @@
         <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G10" s="19">
         <v>43985</v>
@@ -2243,10 +2246,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="7" t="s">
         <v>8</v>
       </c>
@@ -2255,10 +2258,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="8" t="s">
         <v>35</v>
       </c>
@@ -2268,66 +2271,66 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
     </row>
     <row r="4" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="24" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="26"/>
+      <c r="D5" s="33"/>
     </row>
     <row r="6" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="22" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="23"/>
+      <c r="D6" s="31"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="32"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
@@ -2336,10 +2339,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="31"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="15" t="s">
         <v>27</v>
       </c>
@@ -2348,10 +2351,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="31"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="15" t="s">
         <v>17</v>
       </c>
@@ -2360,10 +2363,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="31"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="15" t="s">
         <v>27</v>
       </c>
@@ -2372,44 +2375,44 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="11"/>
       <c r="D19" s="12"/>
     </row>
@@ -2424,18 +2427,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
@@ -2445,6 +2436,18 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -2729,6 +2732,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2912,22 +2930,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49E1E9F5-32D4-4E49-AB9D-83E66B6D7A5A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2943,28 +2970,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>